--- a/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
@@ -1,147 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>004390</t>
-  </si>
-  <si>
-    <t>700003</t>
-  </si>
-  <si>
-    <t>004391</t>
-  </si>
-  <si>
-    <t>003717</t>
-  </si>
-  <si>
-    <t>010484</t>
-  </si>
-  <si>
-    <t>平安转型创新灵活配置混合A</t>
-  </si>
-  <si>
-    <t>平安策略先锋混合</t>
-  </si>
-  <si>
-    <t>平安转型创新灵活配置混合C</t>
-  </si>
-  <si>
-    <t>中银量化精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>中银量化精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>85.07</t>
-  </si>
-  <si>
-    <t>78.02</t>
-  </si>
-  <si>
-    <t>90.78</t>
-  </si>
-  <si>
-    <t>4.27</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>0.0640</t>
-  </si>
-  <si>
-    <t>0.0482</t>
-  </si>
-  <si>
-    <t>0.0303</t>
-  </si>
-  <si>
-    <t>0.0081</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,167 +446,415 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -857,4 +858,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -866,7 +867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,17 +878,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -897,14 +918,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -913,13 +956,537 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1417,7 +1418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,17 +1429,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1448,14 +1469,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.34</v>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1464,14 +1507,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1480,13 +1545,1351 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4987</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3649</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2804,7 +2805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2815,17 +2816,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2835,14 +2856,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.54</v>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2851,14 +2894,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.34</v>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2867,14 +2932,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -2883,13 +2970,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>5.54</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>2.34</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -566,6 +583,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1457,7 +1986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2843,7 +3372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3393,7 +3922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3563,7 +4092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
+++ b/数据整理/stocks/A股/上证主板/603297-永新光学.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.91</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.56</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>5.54</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>2.34</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.35</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -583,6 +600,286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014745</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014744</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1094,7 +1391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1986,7 +2283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3372,7 +3669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3922,7 +4219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4092,7 +4389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
